--- a/Guia 5/permisos.xlsx
+++ b/Guia 5/permisos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menji\OneDrive - Universidad de Sonsonate\CICLO V - USO\CICLO V - TAREAS\TAREAS - LAB. BASE DE DATOS I\LaboratorioBDI\GUIA05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97E815D-0FEF-4E70-9545-6DB90AB24A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD38377F-8F0B-459B-9BF7-6094114F99DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4454E307-B2E1-4A50-BD93-81C4DDD0B701}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>Regente</t>
   </si>
   <si>
-    <t>CRUD(medicamentos,formulas,sucursales)</t>
-  </si>
-  <si>
     <t>regente@gmail.com</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>CRUD(empleados,cargos,direcciones)    LECTURA(distritos,municipios,departamentos)</t>
+  </si>
+  <si>
+    <t>CRUD(medicamentos,sucursales)</t>
   </si>
 </sst>
 </file>
@@ -560,7 +560,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,76 +597,76 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Guia 5/permisos.xlsx
+++ b/Guia 5/permisos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menji\OneDrive - Universidad de Sonsonate\CICLO V - USO\CICLO V - TAREAS\TAREAS - LAB. BASE DE DATOS I\LaboratorioBDI\GUIA05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD38377F-8F0B-459B-9BF7-6094114F99DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C57C20-6D57-4FDF-9111-B735FFE8A7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4454E307-B2E1-4A50-BD93-81C4DDD0B701}"/>
   </bookViews>
@@ -53,63 +53,39 @@
     <t>ADMINISTRADOR: todos los permisos</t>
   </si>
   <si>
-    <t>sysadmin@gmail.com</t>
-  </si>
-  <si>
     <t>Regente</t>
   </si>
   <si>
-    <t>regente@gmail.com</t>
-  </si>
-  <si>
     <t>Gerente</t>
   </si>
   <si>
     <t>GERENTE: todos los permisos</t>
   </si>
   <si>
-    <t>gerente@gmail.com</t>
-  </si>
-  <si>
     <t>Cajero</t>
   </si>
   <si>
     <t>CRUD(clientes,ventas,detalle de venta,factura de venta,direcciones,metodos de pago)   LECTURA(distritos,municipios,departamentos)</t>
   </si>
   <si>
-    <t>cajero@gmail.com</t>
-  </si>
-  <si>
     <t>Vendedor</t>
   </si>
   <si>
     <t>CRUD(clientes,medicamentos,direcciones,ventas,detalle de venta,factura de venta)   LECTURA(distritos,municipios,departamentos)</t>
   </si>
   <si>
-    <t>vendedor@gmail.com</t>
-  </si>
-  <si>
     <t>Bodeguero</t>
   </si>
   <si>
     <t>CRUD(inventario,medicamentos,categorias,presentacion de medicamento,marcas,compras,detalle de compra,factura de compra,laboratorios,direcciones,sucursales)   LECTURA(distritos,municipios,departamentos)</t>
   </si>
   <si>
-    <t>bodeguero@gmail.com</t>
-  </si>
-  <si>
     <t>RRHH</t>
   </si>
   <si>
-    <t>rrhh@gmail.com</t>
-  </si>
-  <si>
     <t>Contador</t>
   </si>
   <si>
-    <t>contador@gmail.com</t>
-  </si>
-  <si>
     <t>CRUD(ventas,detalle de venta,factura de venta,compras,detalle de compra,factura de compra,metodos de pago)</t>
   </si>
   <si>
@@ -117,13 +93,37 @@
   </si>
   <si>
     <t>CRUD(medicamentos,sucursales)</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>regen</t>
+  </si>
+  <si>
+    <t>geren</t>
+  </si>
+  <si>
+    <t>caje</t>
+  </si>
+  <si>
+    <t>vende</t>
+  </si>
+  <si>
+    <t>bodeg</t>
+  </si>
+  <si>
+    <t>rrhh</t>
+  </si>
+  <si>
+    <t>conta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,21 +135,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Bahnschrift"/>
       <family val="2"/>
     </font>
@@ -204,9 +189,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -219,12 +203,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -559,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD7ACA3-E4B0-4458-AC10-F04CA8F11781}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,97 +572,87 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{F590CE9A-FAC2-47D5-B2CE-B70DFEF8669D}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{4A522290-412C-47A2-BF74-22B3FE8D754E}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{E335B83D-4400-4813-AB1B-4B39DCADA4BB}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{9D6044F3-09A0-4DD7-9893-9C9E02CB46E6}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{E626C413-1CE8-4228-8B32-AD9609DC2101}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{56D1FC1E-A472-4127-9582-7EE708DA4AFA}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{C5DC61DA-585F-42EB-8A94-27FC6D107CE1}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{B5CDE3BF-FD7A-4ABA-A757-0E267784A4D6}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Guia 5/permisos.xlsx
+++ b/Guia 5/permisos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menji\OneDrive - Universidad de Sonsonate\CICLO V - USO\CICLO V - TAREAS\TAREAS - LAB. BASE DE DATOS I\LaboratorioBDI\GUIA05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C57C20-6D57-4FDF-9111-B735FFE8A7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BC8E59-D250-4E4B-963D-FC904F7B0A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4454E307-B2E1-4A50-BD93-81C4DDD0B701}"/>
   </bookViews>
@@ -123,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +135,12 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Bahnschrift"/>
       <family val="2"/>
     </font>
@@ -197,14 +203,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,15 +548,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD7ACA3-E4B0-4458-AC10-F04CA8F11781}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="195.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="181.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -565,90 +571,90 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
     </row>
